--- a/WISOL.UI/INPUT_PRICE.xlsx
+++ b/WISOL.UI/INPUT_PRICE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <rPr>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>TIME</t>
+  </si>
+  <si>
+    <t>INPUT_BASE</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -167,6 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,11 +454,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -465,10 +469,11 @@
     <col min="4" max="4" width="18.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -490,8 +495,11 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -500,7 +508,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -509,7 +517,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
@@ -518,7 +526,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
@@ -527,7 +535,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
@@ -536,7 +544,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -545,7 +553,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -554,7 +562,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
@@ -563,7 +571,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -572,7 +580,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -581,7 +589,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -590,7 +598,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
@@ -599,7 +607,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
@@ -608,7 +616,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
@@ -617,7 +625,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
